--- a/public/sampleFiles/Address_Phone_Sample.xlsx
+++ b/public/sampleFiles/Address_Phone_Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="149">
   <si>
     <t>City</t>
   </si>
@@ -226,16 +226,16 @@
     <t>ADDRESS</t>
   </si>
   <si>
+    <t>GMB Name</t>
+  </si>
+  <si>
     <t>GMB Verification Category</t>
   </si>
   <si>
     <t>GMB Listing Name</t>
   </si>
   <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Hair Spa</t>
   </si>
   <si>
     <t>Bait shop</t>
@@ -244,10 +244,7 @@
     <t>AL Tilman Candle Shop</t>
   </si>
   <si>
-    <t>Active Needs Payment</t>
-  </si>
-  <si>
-    <t>Verified</t>
+    <t>Fabric Store</t>
   </si>
   <si>
     <t>Hair Salon</t>
@@ -256,10 +253,7 @@
     <t>AL Tilman Gun &amp; Arms</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Hard Pending</t>
+    <t>Candle Shop</t>
   </si>
   <si>
     <t>Fabric store</t>
@@ -268,13 +262,16 @@
     <t>Elliot Rogers Bait &amp; Tackle</t>
   </si>
   <si>
+    <t>Gun &amp; Arms</t>
+  </si>
+  <si>
     <t>Candle store</t>
   </si>
   <si>
     <t>Elliot Rogers Hair Spa</t>
   </si>
   <si>
-    <t>Soft Pending</t>
+    <t>Bait &amp; Tackle</t>
   </si>
   <si>
     <t>Gun shop</t>
@@ -289,15 +286,9 @@
     <t>Elliot Rogers Gun &amp; Arms</t>
   </si>
   <si>
-    <t>Skipped</t>
-  </si>
-  <si>
     <t>Asetra Bait &amp; Tackle</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
     <t>Nemasa Asetra Hair Spa</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>Brooks Bait &amp; Tackle</t>
   </si>
   <si>
-    <t>Post Card</t>
-  </si>
-  <si>
     <t>Kali Brooks Hair Spa</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
   </si>
   <si>
     <t>Kali Brooks Candle Shop</t>
-  </si>
-  <si>
-    <t>Suspended</t>
   </si>
   <si>
     <t>Kali Brooks Gun &amp; Arms</t>
@@ -851,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,16 +850,15 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -903,19 +887,16 @@
         <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -935,28 +916,25 @@
         <v>76104</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>1234567890</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -976,28 +954,25 @@
         <v>43215</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
         <v>1234567890</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1017,28 +992,25 @@
         <v>37203</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4">
+        <v>81</v>
+      </c>
+      <c r="J4">
         <v>1234567890</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1058,28 +1030,25 @@
         <v>97201</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
         <v>1234567890</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1099,28 +1068,25 @@
         <v>89146</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
         <v>1234567890</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1140,30 +1106,27 @@
         <v>76120</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
       <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7">
+        <v>88</v>
+      </c>
+      <c r="J7">
         <v>9087654568</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="L7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1181,28 +1144,25 @@
         <v>43212</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8">
+        <v>89</v>
+      </c>
+      <c r="J8">
         <v>9087654568</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1222,28 +1182,25 @@
         <v>37203</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="J9">
         <v>9087654568</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1263,28 +1220,25 @@
         <v>97201</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10">
+        <v>91</v>
+      </c>
+      <c r="J10">
         <v>9087654568</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1304,28 +1258,25 @@
         <v>89146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11">
+        <v>92</v>
+      </c>
+      <c r="J11">
         <v>9087654568</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1345,30 +1296,27 @@
         <v>75247</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>96</v>
       </c>
       <c r="I12" t="s">
         <v>93</v>
       </c>
-      <c r="J12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
         <v>3443568790</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1386,28 +1334,25 @@
         <v>73118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13">
+        <v>94</v>
+      </c>
+      <c r="J13">
         <v>3443568790</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1427,28 +1372,25 @@
         <v>87107</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14">
+        <v>95</v>
+      </c>
+      <c r="J14">
         <v>3443568790</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1468,28 +1410,25 @@
         <v>93721</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15">
+        <v>96</v>
+      </c>
+      <c r="J15">
         <v>3443568790</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1509,28 +1448,25 @@
         <v>80909</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16">
+        <v>97</v>
+      </c>
+      <c r="J16">
         <v>3443568790</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="L16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1550,28 +1486,25 @@
         <v>75247</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17">
+      <c r="I17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17">
         <v>8767897654</v>
       </c>
+      <c r="K17" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1591,28 +1524,25 @@
         <v>73118</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18">
+        <v>99</v>
+      </c>
+      <c r="J18">
         <v>8767897654</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1632,28 +1562,25 @@
         <v>87107</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s">
-        <v>105</v>
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="J19">
         <v>8767897654</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="L19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1673,28 +1600,25 @@
         <v>93721</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20">
+        <v>101</v>
+      </c>
+      <c r="J20">
         <v>8767897654</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1714,28 +1638,25 @@
         <v>80909</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21">
+        <v>102</v>
+      </c>
+      <c r="J21">
         <v>8767897654</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="L21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1755,28 +1676,25 @@
         <v>74136</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H22" t="s">
-        <v>108</v>
-      </c>
       <c r="I22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" t="s">
         <v>103</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>4343546787</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1796,29 +1714,26 @@
         <v>70116</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23">
+        <v>104</v>
+      </c>
+      <c r="J23">
         <v>4343546787</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H17 G11:G23">
+  <conditionalFormatting sqref="I17 G11:H23">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH(("in progress"),(G11))))</formula>
     </cfRule>
